--- a/memory/gigs_created.xlsx
+++ b/memory/gigs_created.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -78,6 +78,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -533,6 +536,39 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>fiverr</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Verify gig</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
